--- a/mbs-perturbation/nano/decisionTree/nearmiss/nano-decisionTree-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/decisionTree/nearmiss/nano-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.36</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6011904761904762</v>
+        <v>0.2229916897506926</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9392857142857143</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.895</v>
+        <v>0.7354570637119113</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.85</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.925</v>
+        <v>0.9473684210526316</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.7272727272727273</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5161290322580645</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.76</v>
+        <v>0.8991228070175437</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8218124449361772</v>
+        <v>0.7434285714285714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7223809523809523</v>
+        <v>0.4011695906432749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7544639403965137</v>
+        <v>0.483298999850724</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8240952380952381</v>
+        <v>0.7451985226223453</v>
       </c>
     </row>
   </sheetData>
